--- a/Matriz RACI Nico.xlsx
+++ b/Matriz RACI Nico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Proyectos\GitHub\Irina Infa\Panel Matriz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iinfa\Proyectos\matriz-raci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6924FF-B462-4239-9047-D3E1FC7A4F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B143C1A-77D6-42E7-AA33-EA5DEEAC659C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz RACI" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="101">
   <si>
     <t>RACI Proceso Gestión de Desempeño</t>
   </si>
@@ -1319,6 +1319,9 @@
   </si>
   <si>
     <t>Cultura consolida y emite reportes; Rankmi provee datos; Gestores/Ejecutivos/Control de Gestión informados para gestión.</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -1996,20 +1999,20 @@
       <selection activeCell="A10" sqref="A10:J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="13.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="13.54296875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2026,7 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -2041,7 +2044,7 @@
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -2059,7 +2062,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2080,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2095,7 +2098,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2113,7 +2116,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2131,7 +2134,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="6" t="s">
         <v>58</v>
@@ -2225,7 +2228,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="6" t="s">
         <v>36</v>
@@ -2255,7 +2258,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
         <v>25</v>
@@ -2285,7 +2288,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>26</v>
@@ -2315,7 +2318,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>24</v>
@@ -2345,7 +2348,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
         <v>27</v>
@@ -2375,7 +2378,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
         <v>28</v>
@@ -2405,7 +2408,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
         <v>29</v>
@@ -2435,7 +2438,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
         <v>30</v>
@@ -2465,7 +2468,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
         <v>31</v>
@@ -2495,7 +2498,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
         <v>32</v>
@@ -2525,7 +2528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
         <v>42</v>
@@ -2555,7 +2558,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
         <v>47</v>
@@ -2585,7 +2588,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="6" t="s">
         <v>46</v>
@@ -2615,7 +2618,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
@@ -2645,7 +2648,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="6" t="s">
         <v>41</v>
@@ -2673,7 +2676,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="6" t="s">
         <v>32</v>
@@ -2701,7 +2704,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="6" t="s">
         <v>42</v>
@@ -2729,7 +2732,7 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="6" t="s">
         <v>43</v>
@@ -2757,7 +2760,7 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="6" t="s">
         <v>44</v>
@@ -2785,7 +2788,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>48</v>
       </c>
@@ -2815,7 +2818,7 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>49</v>
@@ -2843,7 +2846,7 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>50</v>
@@ -2871,7 +2874,7 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="6" t="s">
         <v>61</v>
@@ -2899,7 +2902,7 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>51</v>
@@ -2927,7 +2930,7 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
         <v>52</v>
@@ -2955,7 +2958,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="6" t="s">
         <v>53</v>
@@ -2983,7 +2986,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="6" t="s">
         <v>60</v>
@@ -3011,7 +3014,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>54</v>
@@ -3039,7 +3042,7 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
         <v>55</v>
@@ -3067,7 +3070,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="6" t="s">
         <v>31</v>
@@ -3095,7 +3098,7 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="6" t="s">
         <v>32</v>
@@ -3123,7 +3126,7 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="6" t="s">
         <v>42</v>
@@ -3151,7 +3154,7 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="6" t="s">
         <v>56</v>
@@ -3179,7 +3182,7 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="6" t="s">
         <v>46</v>
@@ -3264,12 +3267,12 @@
       <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="70.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="70.54296875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>64</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3313,7 +3316,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3357,7 +3360,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3368,7 +3371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3379,7 +3382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3390,7 +3393,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3423,7 +3426,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3452,68 +3455,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AC80B0-C1F0-4ABF-BF02-DC5D9A2475F4}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="14" customWidth="1"/>
+    <col min="1" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="54.7265625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
@@ -3525,25 +3531,28 @@
         <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3554,31 +3563,34 @@
         <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3586,91 +3598,100 @@
         <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>13</v>
@@ -3682,123 +3703,135 @@
         <v>13</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="J9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="J10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
@@ -3810,27 +3843,30 @@
         <v>13</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
@@ -3845,56 +3881,62 @@
         <v>13</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
@@ -3906,62 +3948,68 @@
         <v>13</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="J15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>13</v>
@@ -3970,25 +4018,28 @@
         <v>13</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
@@ -4004,26 +4055,29 @@
       <c r="I17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="J17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
@@ -4032,28 +4086,31 @@
         <v>13</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>13</v>
@@ -4062,88 +4119,97 @@
         <v>13</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="J21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>13</v>
@@ -4152,28 +4218,31 @@
         <v>13</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>13</v>
@@ -4184,24 +4253,27 @@
       <c r="I23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="J23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
@@ -4209,32 +4281,35 @@
         <v>13</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="J24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G25" s="2" t="s">
         <v>13</v>
       </c>
@@ -4242,115 +4317,127 @@
         <v>13</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="J26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="J27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="J28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>13</v>
@@ -4362,85 +4449,94 @@
         <v>13</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="J30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -4452,25 +4548,28 @@
         <v>13</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
@@ -4484,53 +4583,59 @@
       <c r="I33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="J33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>13</v>
@@ -4542,58 +4647,64 @@
         <v>13</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="J36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>13</v>
@@ -4602,26 +4713,29 @@
         <v>13</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:I37">
+  <conditionalFormatting sqref="D2:J37">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="A/R">
-      <formula>NOT(ISERROR(SEARCH("A/R",C2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A/R",D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",C2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH("I",C2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("I",D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",C2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("C",D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",C2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("R",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4629,12 +4743,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="65489fb9-88f1-4481-a163-7837324f464e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="203fbe8d-4c34-4ca4-90c1-ab57944052b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4879,20 +4995,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="65489fb9-88f1-4481-a163-7837324f464e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="203fbe8d-4c34-4ca4-90c1-ab57944052b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF98DCB7-7EC1-4C14-A3CB-5F8DCA8AE358}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2096C558-CA2E-457A-AEA2-BC227AF1B633}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="65489fb9-88f1-4481-a163-7837324f464e"/>
+    <ds:schemaRef ds:uri="203fbe8d-4c34-4ca4-90c1-ab57944052b2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4917,12 +5034,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2096C558-CA2E-457A-AEA2-BC227AF1B633}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF98DCB7-7EC1-4C14-A3CB-5F8DCA8AE358}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="65489fb9-88f1-4481-a163-7837324f464e"/>
-    <ds:schemaRef ds:uri="203fbe8d-4c34-4ca4-90c1-ab57944052b2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>